--- a/docs/.gitbook/assets/sample004.xlsx
+++ b/docs/.gitbook/assets/sample004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedhacene/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6456B662-4640-634E-8AA3-3D151BF3E0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE4802-3B6C-3E40-B305-D44739A5A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24440" yWindow="-26420" windowWidth="28040" windowHeight="17440" xr2:uid="{BFBC4C97-3254-A44B-85F1-C36D6F35961A}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19980" xr2:uid="{BFBC4C97-3254-A44B-85F1-C36D6F35961A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ref_id</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>mitigated</t>
+  </si>
+  <si>
+    <t>filtering_labels</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>internal|test</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,19 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30B2708-DBC3-0B4B-A101-ADC940D1686C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +505,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -512,8 +525,11 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -530,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -545,6 +561,9 @@
       </c>
       <c r="E4" t="s">
         <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
